--- a/comparison of analyses.xlsx
+++ b/comparison of analyses.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
-  <si>
-    <t>Resp. Var.</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>"Important" Vars.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>ALLrich</t>
   </si>
@@ -40,73 +31,182 @@
     <t xml:space="preserve">W </t>
   </si>
   <si>
-    <t xml:space="preserve">BRT </t>
-  </si>
-  <si>
-    <t>glm</t>
-  </si>
-  <si>
-    <t>randForest</t>
-  </si>
-  <si>
-    <t>condInf Tree</t>
-  </si>
-  <si>
-    <t>SA, secchi, cond, boatlaunch, alk, develop  - OR - SA, secchi, alk, cond, develop, nearestLM</t>
-  </si>
-  <si>
-    <t>P, cond, alk, depth, secchi, pH - OR - P, cond, alk, nearestW, depth, nearestSP</t>
-  </si>
-  <si>
-    <t>P, cond, alk, depth, latitud, SA - OR - P, cond, alk, SA, latitud, longitud</t>
-  </si>
-  <si>
-    <t>nearestSP, cond, alk, nonFPrich, latitud, depth - OR - nearestSP, P, alk, cond, develop, longitud</t>
-  </si>
-  <si>
-    <t>cond, P, develop, depth, secchi, nearestW - OR - P, develop, nearestW, cond, alk, latitud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boatlaunch - nearestLM - secchi / develop </t>
-  </si>
-  <si>
-    <t>cond - nearestSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secchi - longitude </t>
-  </si>
-  <si>
     <t>alk</t>
   </si>
   <si>
     <t>cond</t>
   </si>
   <si>
-    <t>region_watershed, SA, boatlaunch, secchi, develop, cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region_watershed, P, cond, alk, pH, depth </t>
-  </si>
-  <si>
-    <t>region_watershed, P, cond, depth, alk, SA</t>
-  </si>
-  <si>
-    <t>region_watershed, P, alk, develop, depth, cond</t>
-  </si>
-  <si>
-    <t>region_watershed, P, nearestW, cond, nearestLM, develop</t>
-  </si>
-  <si>
-    <t>boatlaunch - waterfowl - pH - develop - SA - nearestSP - longitud - P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cond - nearestLM - secchi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cond - secchi </t>
-  </si>
-  <si>
-    <t>cond - waterfowl - secchi - P - waterbodies1km</t>
+    <t>Boosted Regression Tree</t>
+  </si>
+  <si>
+    <t>Generalized Linear Model</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Conditional Inference Tree</t>
+  </si>
+  <si>
+    <t>region_watershed, 
+SA, 
+boatlaunch, 
+secchi, 
+develop, 
+cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_watershed, 
+P, 
+cond, 
+alk, 
+pH, 
+depth </t>
+  </si>
+  <si>
+    <t>region_watershed, 
+P, 
+cond, 
+depth, 
+alk, 
+SA</t>
+  </si>
+  <si>
+    <t>region_watershed, 
+P, 
+alk, 
+develop, 
+depth, 
+cond</t>
+  </si>
+  <si>
+    <t>region_watershed, 
+P, 
+nearestW, 
+cond, 
+nearestLM, 
+develop</t>
+  </si>
+  <si>
+    <t>boatlaunch, 
+waterfowl, 
+pH, 
+develop, 
+SA, 
+nearestSP, 
+longitud, 
+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cond, 
+nearestLM, 
+secchi </t>
+  </si>
+  <si>
+    <t>cond, 
+waterfowl, 
+secchi, 
+P, 
+waterbodies1km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cond, 
+secchi </t>
+  </si>
+  <si>
+    <t>cond, 
+nearestSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secchi, 
+longitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boatlaunch, 
+nearestLM, 
+secchi, 
+develop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA, 
+secchi, 
+cond, 
+boatlaunch, 
+alk, 
+develop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P, 
+cond, 
+alk, 
+depth, 
+secchi, 
+pH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P, 
+cond, 
+alk, 
+depth, 
+latitud, 
+SA </t>
+  </si>
+  <si>
+    <t>SA, 
+secchi, 
+alk, 
+cond, 
+develop, 
+nearestLM</t>
+  </si>
+  <si>
+    <t>P, 
+cond, 
+alk, 
+nearestW, 
+depth, 
+nearestSP</t>
+  </si>
+  <si>
+    <t>P, 
+cond, 
+alk, 
+SA, 
+latitud, 
+longitud</t>
+  </si>
+  <si>
+    <t>nearestSP, 
+P, 
+alk, 
+cond, 
+develop, 
+longitud</t>
+  </si>
+  <si>
+    <t>P, 
+develop, 
+nearestW, 
+cond, 
+alk, 
+latitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cond, 
+P, 
+develop, 
+depth, 
+secchi, 
+nearestW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nearestSP, 
+cond, 
+alk, 
+nonFPrich, 
+latitud, 
+depth </t>
   </si>
 </sst>
 </file>
@@ -136,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -159,15 +259,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,252 +613,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>